--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2677768.031338073</v>
+        <v>2675432.920136094</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>42.68052496925149</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>87.99748334856844</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>172.0199132219074</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>185.2705165323378</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,7 +911,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>24.78419191379114</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>345.7367844057999</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>176.410837212323</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>54.91484539090624</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>79.79054502264623</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>186.8460807091497</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,13 +1531,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805175675</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="F13" t="n">
-        <v>30.65104903283332</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2330,10 +2330,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>32.84316668127781</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135851</v>
       </c>
     </row>
     <row r="44">
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>168.4805514670949</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1291.481876182945</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C2" t="n">
-        <v>1291.481876182945</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D2" t="n">
-        <v>1291.481876182945</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
         <v>837.3843300102556</v>
@@ -4370,10 +4370,10 @@
         <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>1202.59552936621</v>
       </c>
     </row>
     <row r="3">
@@ -4389,43 +4389,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>343.6260600182044</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>638.3296170496761</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167644</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888575</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4516,22 +4516,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1163.476477647004</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1163.476477647004</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1163.476477647004</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1163.476477647004</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1163.476477647004</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.292347699871</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="C5" t="n">
-        <v>844.329830759459</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2537.304791113498</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2537.304791113498</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2283.723730377677</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1952.660843034107</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>1599.892187763993</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="X5" t="n">
-        <v>1599.892187763993</v>
+        <v>1295.021456295685</v>
       </c>
       <c r="Y5" t="n">
-        <v>1599.892187763993</v>
+        <v>1295.021456295685</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>551.2876347907469</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>845.9911918222185</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.2996089082458</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1478.393172791184</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1255.41469198592</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1255.41469198592</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V7" t="n">
-        <v>1000.730203780033</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W7" t="n">
-        <v>1000.730203780033</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="X7" t="n">
-        <v>772.7406528820156</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.9480737384855</v>
+        <v>546.2888279392355</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2014.778044008242</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1645.815527067831</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1287.54982846108</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>901.761575862836</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3026.581738278539</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2773.051261552376</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.778044008242</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,10 +4872,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,16 +4884,16 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5033,31 +5033,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>414.4022433768874</v>
+        <v>317.6151975578646</v>
       </c>
       <c r="E13" t="n">
-        <v>266.4891497944943</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,25 +5413,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,37 +5528,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6552,16 +6552,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,55 +6695,55 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6786,19 +6786,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797186</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
         <v>378.192580311172</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,16 +7728,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>45.76488231024547</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>138.9393975111055</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>129.4330134067484</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664556</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>114.7699989900979</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.76050189075468</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850965</v>
       </c>
     </row>
     <row r="44">
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>57.22910392194225</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775328.4852156783</v>
+        <v>775328.4852156782</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>775328.4852156785</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>775328.4852156782</v>
+        <v>775328.4852156783</v>
       </c>
     </row>
     <row r="16">
@@ -26314,43 +26314,43 @@
         <v>656833.4158914271</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.415891427</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="J2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="K2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="N2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810784</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756613</v>
+        <v>9337.200356756646</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756655</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756655</v>
+        <v>9337.200356756624</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756632</v>
+        <v>9337.200356756624</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756613</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26522,46 +26522,46 @@
         <v>-687582.41381644</v>
       </c>
       <c r="C6" t="n">
-        <v>427169.3697594799</v>
+        <v>427169.36975948</v>
       </c>
       <c r="D6" t="n">
-        <v>267748.0997615877</v>
+        <v>267748.0997615875</v>
       </c>
       <c r="E6" t="n">
-        <v>209845.087763986</v>
+        <v>209810.3498385507</v>
       </c>
       <c r="F6" t="n">
-        <v>535257.5495713411</v>
+        <v>535222.8116459054</v>
       </c>
       <c r="G6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459054</v>
       </c>
       <c r="H6" t="n">
-        <v>535257.5495713411</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="I6" t="n">
-        <v>535257.549571341</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="J6" t="n">
-        <v>367652.3717613586</v>
+        <v>367617.6338359228</v>
       </c>
       <c r="K6" t="n">
-        <v>535257.5495713413</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="L6" t="n">
-        <v>486963.5795631503</v>
+        <v>486928.8416377149</v>
       </c>
       <c r="M6" t="n">
-        <v>450202.5216358294</v>
+        <v>450167.7837103941</v>
       </c>
       <c r="N6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459057</v>
       </c>
       <c r="O6" t="n">
-        <v>535257.5495713414</v>
+        <v>535222.8116459058</v>
       </c>
       <c r="P6" t="n">
-        <v>535257.5495713413</v>
+        <v>535222.8116459056</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>339.2498451030103</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>281.7336173299006</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27588,22 +27588,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>48.72878277530452</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>33.31413681975695</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>98.66802348500322</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.504184311613074</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.421142969614266</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>139.7476149708312</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>327.0855007190652</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>17.07188943047043</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-2.053100445934254e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29050,10 +29050,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779101</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32257,7 +32257,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
         <v>125.31755462929</v>
@@ -32315,25 +32315,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33184,7 +33184,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
         <v>867.846407116256</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,13 +33652,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33974,10 +33974,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>232.3523785537303</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>505.870729793146</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34796,7 +34796,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>316.0205096502332</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334657</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,13 +37300,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,10 +37622,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
